--- a/Data/Departures_Rdam_to_HS.xlsx
+++ b/Data/Departures_Rdam_to_HS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documenten\TU Delft\1. MSc TIL\Q1\TIL6022\TIL6022_Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documenten\TU Delft\1. MSc TIL\Q1\TIL6022\TIL6022_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF669ED7-4230-4478-898F-9FA26F34C912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B7A88-E490-4B97-B45C-C559D21476A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00C6AE93-6932-468E-8CCD-0352CF7EBABB}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
   <si>
     <t>Rijswijk</t>
   </si>
@@ -53,9 +53,6 @@
     <t>Moerwijk</t>
   </si>
   <si>
-    <t>Deflt</t>
-  </si>
-  <si>
     <t>HS</t>
   </si>
   <si>
@@ -66,6 +63,15 @@
   </si>
   <si>
     <t>traintype</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>start_loca</t>
+  </si>
+  <si>
+    <t>Delft</t>
   </si>
 </sst>
 </file>
@@ -418,15 +424,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81DB21-E339-4C06-94CE-7DC6239D249E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -437,7 +443,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -446,13 +452,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f>TIME(16,5,0)</f>
         <v>0.67013888888888884</v>
@@ -482,10 +491,13 @@
         <v>0.68680555555555556</v>
       </c>
       <c r="I2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f>TIME(16,12,0)</f>
         <v>0.67499999999999993</v>
@@ -506,10 +518,13 @@
         <v>0.68819444444444444</v>
       </c>
       <c r="I3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f>TIME(16,18,0)</f>
         <v>0.6791666666666667</v>
@@ -527,10 +542,13 @@
         <v>0.69166666666666676</v>
       </c>
       <c r="I4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f>TIME(16,21,0)</f>
         <v>0.68125000000000002</v>
@@ -551,10 +569,13 @@
         <v>0.69513888888888886</v>
       </c>
       <c r="I5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f>TIME(16,31,0)</f>
         <v>0.68819444444444444</v>
@@ -575,10 +596,13 @@
         <v>0.70138888888888884</v>
       </c>
       <c r="I6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f>TIME(16,35,0)</f>
         <v>0.69097222222222221</v>
@@ -608,10 +632,13 @@
         <v>0.70763888888888893</v>
       </c>
       <c r="I7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f>TIME(16,42,0)</f>
         <v>0.6958333333333333</v>
@@ -632,10 +659,13 @@
         <v>0.7090277777777777</v>
       </c>
       <c r="I8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f>TIME(16,48,0)</f>
         <v>0.70000000000000007</v>
@@ -649,10 +679,13 @@
         <v>0.71250000000000002</v>
       </c>
       <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f>TIME(16,51,0)</f>
         <v>0.70208333333333339</v>
@@ -670,10 +703,13 @@
         <v>0.71597222222222223</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <f>TIME(16,56,0)</f>
         <v>0.7055555555555556</v>
@@ -703,10 +739,13 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="I11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <f>TIME(17,5,0)</f>
         <v>0.71180555555555547</v>
@@ -736,10 +775,13 @@
         <v>0.7284722222222223</v>
       </c>
       <c r="I12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <f>TIME(17,12,0)</f>
         <v>0.71666666666666667</v>
@@ -760,10 +802,13 @@
         <v>0.72986111111111107</v>
       </c>
       <c r="I13" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <f>TIME(17,18,0)</f>
         <v>0.72083333333333333</v>
@@ -777,10 +822,13 @@
         <v>0.73333333333333339</v>
       </c>
       <c r="I14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <f>TIME(17,21,0)</f>
         <v>0.72291666666666676</v>
@@ -798,10 +846,13 @@
         <v>0.7368055555555556</v>
       </c>
       <c r="I15" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <f>TIME(17,26,0)</f>
         <v>0.72638888888888886</v>
@@ -831,10 +882,13 @@
         <v>0.74305555555555547</v>
       </c>
       <c r="I16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J16" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <f>TIME(17,35,0)</f>
         <v>0.73263888888888884</v>
@@ -864,10 +918,13 @@
         <v>0.74930555555555556</v>
       </c>
       <c r="I17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="J17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f>TIME(17,42,0)</f>
         <v>0.73749999999999993</v>
@@ -888,10 +945,13 @@
         <v>0.75069444444444444</v>
       </c>
       <c r="I18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <f>TIME(17,48,0)</f>
         <v>0.7416666666666667</v>
@@ -905,10 +965,13 @@
         <v>0.75416666666666676</v>
       </c>
       <c r="I19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <f>TIME(17,51,0)</f>
         <v>0.74375000000000002</v>
@@ -926,10 +989,13 @@
         <v>0.75763888888888886</v>
       </c>
       <c r="I20" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="J20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f>TIME(17,56,0)</f>
         <v>0.74722222222222223</v>
@@ -959,7 +1025,10 @@
         <v>0.76388888888888884</v>
       </c>
       <c r="I21" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="J21" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Departures_Rdam_to_HS.xlsx
+++ b/Data/Departures_Rdam_to_HS.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\julia\OneDrive\Documenten\TU Delft\1. MSc TIL\Q1\TIL6022\TIL6022_Project\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B62B7A88-E490-4B97-B45C-C559D21476A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6F5F2AD-A462-48A2-B7E9-6C54C73F629C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00C6AE93-6932-468E-8CCD-0352CF7EBABB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00C6AE93-6932-468E-8CCD-0352CF7EBABB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="full_times" sheetId="1" r:id="rId1"/>
+    <sheet name="dep_times" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="13">
   <si>
     <t>Rijswijk</t>
   </si>
@@ -72,6 +73,9 @@
   </si>
   <si>
     <t>Delft</t>
+  </si>
+  <si>
+    <t>dep_time</t>
   </si>
 </sst>
 </file>
@@ -426,8 +430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C81DB21-E339-4C06-94CE-7DC6239D249E}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1035,4 +1039,342 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACF07C3-0A0F-47A7-99D0-36C56A06E86A}">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <f>TIME(16,5,0)</f>
+        <v>0.67013888888888884</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <f>TIME(16,12,0)</f>
+        <v>0.67499999999999993</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <f>TIME(16,18,0)</f>
+        <v>0.6791666666666667</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>TIME(16,21,0)</f>
+        <v>0.68125000000000002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <f>TIME(16,31,0)</f>
+        <v>0.68819444444444444</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <f>TIME(16,35,0)</f>
+        <v>0.69097222222222221</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <f>TIME(16,42,0)</f>
+        <v>0.6958333333333333</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <f>TIME(16,48,0)</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <f>TIME(16,51,0)</f>
+        <v>0.70208333333333339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <f>TIME(16,56,0)</f>
+        <v>0.7055555555555556</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <f>TIME(17,5,0)</f>
+        <v>0.71180555555555547</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <f>TIME(17,12,0)</f>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <f>TIME(17,18,0)</f>
+        <v>0.72083333333333333</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <f>TIME(17,21,0)</f>
+        <v>0.72291666666666676</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <f>TIME(17,26,0)</f>
+        <v>0.72638888888888886</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <f>TIME(17,35,0)</f>
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="B17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <f>TIME(17,42,0)</f>
+        <v>0.73749999999999993</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <f>TIME(17,48,0)</f>
+        <v>0.7416666666666667</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <f>TIME(17,51,0)</f>
+        <v>0.74375000000000002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <f>TIME(17,56,0)</f>
+        <v>0.74722222222222223</v>
+      </c>
+      <c r="B21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>